--- a/Чертежи и спеки шкафов/Спецификация/ТРЕЙ.xlsx
+++ b/Чертежи и спеки шкафов/Спецификация/ТРЕЙ.xlsx
@@ -3,13 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FB5CD9-7DC1-43DA-B1F3-D70A4A049D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395662BB-AF92-4835-ADB7-1A2400EA4A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="NameCount">Лист1!$J:$J</definedName>
+    <definedName name="NameList">Лист1!$J:$K</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="70">
   <si>
     <t>Обозн</t>
   </si>
@@ -246,6 +250,9 @@
     <t>СРВ "Станция оператора/архивирования-сервер". (устанавливается на сервер АБД) 
 Количество точек ввода-вывода до 10000
 Модули: Сервер АБД, графический интерфейс с управлением, просмотр архивов, зеркализация АБД, сервис печати, резервирование сети, сервер событий, OPC-UA.</t>
+  </si>
+  <si>
+    <t>ЗИП</t>
   </si>
 </sst>
 </file>
@@ -325,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -394,12 +401,29 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -416,7 +440,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -484,12 +508,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -791,28 +845,28 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J691"/>
+  <dimension ref="A1:K691"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M134" sqref="M134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="27" customWidth="1"/>
-    <col min="2" max="2" width="72.7109375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="27" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="8" style="27" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="28" customWidth="1"/>
-    <col min="8" max="8" width="15" style="28" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="72.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="25" customWidth="1"/>
+    <col min="8" max="8" width="15" style="25" customWidth="1"/>
     <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -838,7 +892,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -864,7 +918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -885,8 +939,12 @@
         <f>F3*G3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C3,C3)=1,MAX(J$3:J3)+1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
         <v>35</v>
@@ -908,8 +966,16 @@
         <f>F4*G4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="1">
+        <f>IF(COUNTIF(C$3:C4,C4)=1,MAX(J$3:J3)+1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f>IF($J4:J841="","",$C4:C841)</f>
+        <v>CSB-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
         <v>36</v>
@@ -928,11 +994,19 @@
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14">
-        <f t="shared" ref="H5:H67" si="0">F5*G5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H5:H70" si="0">F5*G5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <f>IF(COUNTIF(C$3:C5,C5)=1,MAX(J$3:J4)+1,"")</f>
+        <v>2</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f>IF($J5:J842="","",$C5:C842)</f>
+        <v>C401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
         <v>32</v>
@@ -954,8 +1028,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="1">
+        <f>IF(COUNTIF(C$3:C6,C6)=1,MAX(J$3:J5)+1,"")</f>
+        <v>3</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f>IF($J6:J843="","",$C6:C843)</f>
+        <v>CUTP-1R</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
         <v>32</v>
@@ -977,8 +1059,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="1">
+        <f>IF(COUNTIF(C$3:C7,C7)=1,MAX(J$3:J6)+1,"")</f>
+        <v>4</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f>IF($J7:J844="","",$C7:C844)</f>
+        <v>CUTP-1G</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
         <v>54</v>
@@ -1000,8 +1090,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="1">
+        <f>IF(COUNTIF(C$3:C8,C8)=1,MAX(J$3:J7)+1,"")</f>
+        <v>5</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f>IF($J8:J845="","",$C8:C845)</f>
+        <v>CIDC</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
         <v>54</v>
@@ -1023,8 +1121,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="1">
+        <f>IF(COUNTIF(C$3:C9,C9)=1,MAX(J$3:J8)+1,"")</f>
+        <v>6</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f>IF($J9:J846="","",$C9:C846)</f>
+        <v>CIDCS</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
         <v>8</v>
@@ -1046,8 +1152,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="1">
+        <f>IF(COUNTIF(C$3:C10,C10)=1,MAX(J$3:J9)+1,"")</f>
+        <v>7</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f>IF($J10:J847="","",$C10:C847)</f>
+        <v>CR6 MR</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
         <v>10</v>
@@ -1069,8 +1183,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="1">
+        <f>IF(COUNTIF(C$3:C11,C11)=1,MAX(J$3:J10)+1,"")</f>
+        <v>8</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f>IF($J11:J848="","",$C11:C848)</f>
+        <v>CR6 IOR</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="11" t="s">
         <v>12</v>
@@ -1092,8 +1214,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="1">
+        <f>IF(COUNTIF(C$3:C12,C12)=1,MAX(J$3:J11)+1,"")</f>
+        <v>9</v>
+      </c>
+      <c r="K12" s="1" t="str">
+        <f>IF($J12:J849="","",$C12:C849)</f>
+        <v>S304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="11" t="s">
         <v>14</v>
@@ -1115,11 +1245,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="1">
+        <f>IF(COUNTIF(C$3:C13,C13)=1,MAX(J$3:J12)+1,"")</f>
+        <v>10</v>
+      </c>
+      <c r="K13" s="1" t="str">
+        <f>IF($J13:J850="","",$C13:C850)</f>
+        <v>S343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>17</v>
@@ -1138,8 +1276,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="1">
+        <f>IF(COUNTIF(C$3:C14,C14)=1,MAX(J$3:J13)+1,"")</f>
+        <v>11</v>
+      </c>
+      <c r="K14" s="1" t="str">
+        <f>IF($J14:J851="","",$C14:C851)</f>
+        <v>TP-D</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="11" t="s">
         <v>16</v>
@@ -1161,8 +1307,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="1">
+        <f>IF(COUNTIF(C$3:C15,C15)=1,MAX(J$3:J14)+1,"")</f>
+        <v>12</v>
+      </c>
+      <c r="K15" s="1" t="str">
+        <f>IF($J15:J852="","",$C15:C852)</f>
+        <v>TP-О</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
         <v>30</v>
@@ -1177,15 +1331,23 @@
         <v>6</v>
       </c>
       <c r="F16" s="13">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="1">
+        <f>IF(COUNTIF(C$3:C16,C16)=1,MAX(J$3:J15)+1,"")</f>
+        <v>13</v>
+      </c>
+      <c r="K16" s="1" t="str">
+        <f>IF($J16:J853="","",$C16:C853)</f>
+        <v>TP-U</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="11" t="s">
         <v>19</v>
@@ -1207,8 +1369,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="1">
+        <f>IF(COUNTIF(C$3:C17,C17)=1,MAX(J$3:J16)+1,"")</f>
+        <v>14</v>
+      </c>
+      <c r="K17" s="1" t="str">
+        <f>IF($J17:J854="","",$C17:C854)</f>
+        <v>FP-04R</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="11" t="s">
         <v>21</v>
@@ -1230,8 +1400,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="1">
+        <f>IF(COUNTIF(C$3:C18,C18)=1,MAX(J$3:J17)+1,"")</f>
+        <v>15</v>
+      </c>
+      <c r="K18" s="1" t="str">
+        <f>IF($J18:J855="","",$C18:C855)</f>
+        <v>M1234A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11" t="s">
         <v>23</v>
@@ -1253,8 +1431,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="1">
+        <f>IF(COUNTIF(C$3:C19,C19)=1,MAX(J$3:J18)+1,"")</f>
+        <v>16</v>
+      </c>
+      <c r="K19" s="1" t="str">
+        <f>IF($J19:J856="","",$C19:C856)</f>
+        <v>M1252D</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="11" t="s">
         <v>25</v>
@@ -1276,8 +1462,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="J20" s="1">
+        <f>IF(COUNTIF(C$3:C20,C20)=1,MAX(J$3:J19)+1,"")</f>
+        <v>17</v>
+      </c>
+      <c r="K20" s="1" t="str">
+        <f>IF($J20:J857="","",$C20:C857)</f>
+        <v>M1251O</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="15" t="s">
         <v>27</v>
@@ -1299,8 +1493,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="1">
+        <f>IF(COUNTIF(C$3:C21,C21)=1,MAX(J$3:J20)+1,"")</f>
+        <v>18</v>
+      </c>
+      <c r="K21" s="1" t="str">
+        <f>IF($J21:J858="","",$C21:C858)</f>
+        <v>M1231TR</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="11" t="s">
         <v>39</v>
@@ -1322,8 +1524,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="1">
+        <f>IF(COUNTIF(C$3:C22,C22)=1,MAX(J$3:J21)+1,"")</f>
+        <v>19</v>
+      </c>
+      <c r="K22" s="1" t="str">
+        <f>IF($J22:J859="","",$C22:C859)</f>
+        <v>M1201Е-0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="1" customFormat="1" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
       <c r="B23" s="17" t="s">
         <v>63</v>
@@ -1343,8 +1553,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C23,C23)=1,MAX(J$3:J22)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K23" s="1" t="str">
+        <f>IF($J23:J860="","",$C23:C860)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -1358,21 +1576,29 @@
         <v>1</v>
       </c>
       <c r="G24" s="9">
-        <f>SUM(H25:H40)</f>
+        <f>SUM(H27:H43)</f>
         <v>0</v>
       </c>
       <c r="H24" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C24,C24)=1,MAX(J$3:J23)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K24" s="1" t="str">
+        <f>IF($J24:J861="","",$C24:C861)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>7</v>
@@ -1381,21 +1607,29 @@
         <v>6</v>
       </c>
       <c r="F25" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <f>F25*G25</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C25,C25)=1,MAX(J$3:J24)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K25" s="1" t="str">
+        <f>IF($J25:J862="","",$C25:C862)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>7</v>
@@ -1404,21 +1638,29 @@
         <v>6</v>
       </c>
       <c r="F26" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H26" si="1">F26*G26</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C26,C26)=1,MAX(J$3:J25)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K26" s="1" t="str">
+        <f>IF($J26:J863="","",$C26:C863)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>7</v>
@@ -1427,21 +1669,29 @@
         <v>6</v>
       </c>
       <c r="F27" s="13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C27,C27)=1,MAX(J$3:J24)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K27" s="1" t="str">
+        <f>IF($J27:J862="","",$C27:C862)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>7</v>
@@ -1450,21 +1700,29 @@
         <v>6</v>
       </c>
       <c r="F28" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C28,C28)=1,MAX(J$3:J27)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K28" s="1" t="str">
+        <f>IF($J28:J863="","",$C28:C863)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>7</v>
@@ -1473,21 +1731,29 @@
         <v>6</v>
       </c>
       <c r="F29" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C29,C29)=1,MAX(J$3:J28)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K29" s="1" t="str">
+        <f>IF($J29:J864="","",$C29:C864)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="11" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>7</v>
@@ -1496,21 +1762,29 @@
         <v>6</v>
       </c>
       <c r="F30" s="13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C30,C30)=1,MAX(J$3:J29)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K30" s="1" t="str">
+        <f>IF($J30:J865="","",$C30:C865)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>7</v>
@@ -1526,14 +1800,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C31,C31)=1,MAX(J$3:J30)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K31" s="1" t="str">
+        <f>IF($J31:J866="","",$C31:C866)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="11" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>7</v>
@@ -1542,21 +1824,29 @@
         <v>6</v>
       </c>
       <c r="F32" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H32" si="2">F32*G32</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C32,C32)=1,MAX(J$3:J31)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K32" s="1" t="str">
+        <f>IF($J32:J869="","",$C32:C869)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>7</v>
@@ -1565,21 +1855,29 @@
         <v>6</v>
       </c>
       <c r="F33" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C33,C33)=1,MAX(J$3:J31)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K33" s="1" t="str">
+        <f>IF($J33:J867="","",$C33:C867)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="11" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>7</v>
@@ -1588,21 +1886,29 @@
         <v>6</v>
       </c>
       <c r="F34" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C34,C34)=1,MAX(J$3:J33)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K34" s="1" t="str">
+        <f>IF($J34:J868="","",$C34:C868)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="11" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>7</v>
@@ -1611,21 +1917,29 @@
         <v>6</v>
       </c>
       <c r="F35" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J35" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C35,C35)=1,MAX(J$3:J34)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K35" s="1" t="str">
+        <f>IF($J35:J869="","",$C35:C869)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>7</v>
@@ -1634,21 +1948,29 @@
         <v>6</v>
       </c>
       <c r="F36" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C36,C36)=1,MAX(J$3:J35)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K36" s="1" t="str">
+        <f>IF($J36:J870="","",$C36:C870)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>7</v>
@@ -1657,21 +1979,29 @@
         <v>6</v>
       </c>
       <c r="F37" s="13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J37" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C37,C37)=1,MAX(J$3:J36)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K37" s="1" t="str">
+        <f>IF($J37:J871="","",$C37:C871)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>7</v>
@@ -1680,21 +2010,29 @@
         <v>6</v>
       </c>
       <c r="F38" s="13">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J38" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C38,C38)=1,MAX(J$3:J37)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K38" s="1" t="str">
+        <f>IF($J38:J872="","",$C38:C872)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="11" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>7</v>
@@ -1703,64 +2041,91 @@
         <v>6</v>
       </c>
       <c r="F39" s="13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="17"/>
+      <c r="J39" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C39,C39)=1,MAX(J$3:J38)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K39" s="1" t="str">
+        <f>IF($J39:J873="","",$C39:C873)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="D40" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="19">
-        <v>2</v>
-      </c>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20">
+        <v>7</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="13">
+        <v>4</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="J40" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C40,C40)=1,MAX(J$3:J39)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K40" s="1" t="str">
+        <f>IF($J40:J874="","",$C40:C874)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="13">
         <v>3</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="8">
-        <v>1</v>
-      </c>
-      <c r="G41" s="9">
-        <f>SUM(H42:H57)</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="8">
+      <c r="G41" s="14"/>
+      <c r="H41" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J41" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C41,C41)=1,MAX(J$3:J40)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K41" s="1" t="str">
+        <f>IF($J41:J875="","",$C41:C875)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>7</v>
@@ -1769,67 +2134,88 @@
         <v>6</v>
       </c>
       <c r="F42" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="J42" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C42,C42)=1,MAX(J$3:J41)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K42" s="1" t="str">
+        <f>IF($J42:J876="","",$C42:C876)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="1" customFormat="1" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="16"/>
+      <c r="B43" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="17"/>
       <c r="D43" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" s="13">
+        <v>45</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="19">
+        <v>2</v>
+      </c>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C43,C43)=1,MAX(J$3:J42)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K43" s="1" t="str">
+        <f>IF($J43:J877="","",$C43:C877)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>3</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="8">
         <v>1</v>
       </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14">
+      <c r="G44" s="9">
+        <f>SUM(H45:H60)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="13">
-        <v>3</v>
-      </c>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J44" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C44,C44)=1,MAX(J$3:J43)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K44" s="1" t="str">
+        <f>IF($J44:J878="","",$C44:C878)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="11" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>7</v>
@@ -1845,14 +2231,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J45" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C45,C45)=1,MAX(J$3:J44)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K45" s="1" t="str">
+        <f>IF($J45:J879="","",$C45:C879)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="11" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>7</v>
@@ -1868,14 +2262,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J46" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C46,C46)=1,MAX(J$3:J45)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K46" s="1" t="str">
+        <f>IF($J46:J880="","",$C46:C880)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="11" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>7</v>
@@ -1884,21 +2286,29 @@
         <v>6</v>
       </c>
       <c r="F47" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J47" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C47,C47)=1,MAX(J$3:J46)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K47" s="1" t="str">
+        <f>IF($J47:J881="","",$C47:C881)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>7</v>
@@ -1907,21 +2317,29 @@
         <v>6</v>
       </c>
       <c r="F48" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J48" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C48,C48)=1,MAX(J$3:J47)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K48" s="1" t="str">
+        <f>IF($J48:J882="","",$C48:C882)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>7</v>
@@ -1937,14 +2355,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J49" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C49,C49)=1,MAX(J$3:J48)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K49" s="1" t="str">
+        <f>IF($J49:J883="","",$C49:C883)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="11" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>7</v>
@@ -1960,14 +2386,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J50" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C50,C50)=1,MAX(J$3:J49)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K50" s="1" t="str">
+        <f>IF($J50:J884="","",$C50:C884)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="11" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>7</v>
@@ -1976,21 +2410,29 @@
         <v>6</v>
       </c>
       <c r="F51" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J51" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C51,C51)=1,MAX(J$3:J50)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K51" s="1" t="str">
+        <f>IF($J51:J885="","",$C51:C885)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>7</v>
@@ -2006,14 +2448,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J52" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C52,C52)=1,MAX(J$3:J51)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K52" s="1" t="str">
+        <f>IF($J52:J886="","",$C52:C886)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>7</v>
@@ -2022,21 +2472,29 @@
         <v>6</v>
       </c>
       <c r="F53" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="14"/>
       <c r="H53" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J53" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C53,C53)=1,MAX(J$3:J52)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K53" s="1" t="str">
+        <f>IF($J53:J887="","",$C53:C887)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>7</v>
@@ -2045,21 +2503,29 @@
         <v>6</v>
       </c>
       <c r="F54" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G54" s="14"/>
       <c r="H54" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="J54" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C54,C54)=1,MAX(J$3:J53)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K54" s="1" t="str">
+        <f>IF($J54:J888="","",$C54:C888)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
-      <c r="B55" s="15" t="s">
-        <v>27</v>
+      <c r="B55" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>7</v>
@@ -2075,14 +2541,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J55" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C55,C55)=1,MAX(J$3:J54)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K55" s="1" t="str">
+        <f>IF($J55:J889="","",$C55:C889)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>7</v>
@@ -2098,57 +2572,84 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="16"/>
-      <c r="B57" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="17"/>
+      <c r="J56" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C56,C56)=1,MAX(J$3:J55)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K56" s="1" t="str">
+        <f>IF($J56:J890="","",$C56:C890)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
+      <c r="B57" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="D57" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" s="19">
-        <v>2</v>
-      </c>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20">
+        <v>7</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="13">
+        <v>1</v>
+      </c>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>4</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="8">
+      <c r="J57" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C57,C57)=1,MAX(J$3:J56)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K57" s="1" t="str">
+        <f>IF($J57:J891="","",$C57:C891)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
+      <c r="B58" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="13">
         <v>1</v>
       </c>
-      <c r="G58" s="9">
-        <f>SUM(H59:H75)</f>
-        <v>0</v>
-      </c>
-      <c r="H58" s="9">
+      <c r="G58" s="14"/>
+      <c r="H58" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J58" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C58,C58)=1,MAX(J$3:J57)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K58" s="1" t="str">
+        <f>IF($J58:J892="","",$C58:C892)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>7</v>
@@ -2157,67 +2658,88 @@
         <v>6</v>
       </c>
       <c r="F59" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="J59" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C59,C59)=1,MAX(J$3:J58)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K59" s="1" t="str">
+        <f>IF($J59:J893="","",$C59:C893)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="1" customFormat="1" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="16"/>
+      <c r="B60" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="17"/>
       <c r="D60" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" s="13">
+        <v>45</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="19">
+        <v>2</v>
+      </c>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C60,C60)=1,MAX(J$3:J59)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K60" s="1" t="str">
+        <f>IF($J60:J894="","",$C60:C894)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>4</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="8">
         <v>1</v>
       </c>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14">
+      <c r="G61" s="9">
+        <f>SUM(H62:H78)</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" s="13">
-        <v>6</v>
-      </c>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J61" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C61,C61)=1,MAX(J$3:J60)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K61" s="1" t="str">
+        <f>IF($J61:J895="","",$C61:C895)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="11" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>7</v>
@@ -2226,21 +2748,29 @@
         <v>6</v>
       </c>
       <c r="F62" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J62" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C62,C62)=1,MAX(J$3:J61)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K62" s="1" t="str">
+        <f>IF($J62:J896="","",$C62:C896)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="11" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>7</v>
@@ -2256,14 +2786,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J63" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C63,C63)=1,MAX(J$3:J62)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K63" s="1" t="str">
+        <f>IF($J63:J897="","",$C63:C897)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="11" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>7</v>
@@ -2272,21 +2810,29 @@
         <v>6</v>
       </c>
       <c r="F64" s="13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J64" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C64,C64)=1,MAX(J$3:J63)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K64" s="1" t="str">
+        <f>IF($J64:J898="","",$C64:C898)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="11" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>7</v>
@@ -2295,22 +2841,29 @@
         <v>6</v>
       </c>
       <c r="F65" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J65"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J65" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C65,C65)=1,MAX(J$3:J64)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K65" s="1" t="str">
+        <f>IF($J65:J899="","",$C65:C899)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="11" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>7</v>
@@ -2319,22 +2872,29 @@
         <v>6</v>
       </c>
       <c r="F66" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J66"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J66" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C66,C66)=1,MAX(J$3:J65)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K66" s="1" t="str">
+        <f>IF($J66:J900="","",$C66:C900)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>7</v>
@@ -2343,22 +2903,29 @@
         <v>6</v>
       </c>
       <c r="F67" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67" s="14"/>
       <c r="H67" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J67"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J67" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C67,C67)=1,MAX(J$3:J66)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K67" s="1" t="str">
+        <f>IF($J67:J901="","",$C67:C901)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="11" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>7</v>
@@ -2367,22 +2934,29 @@
         <v>6</v>
       </c>
       <c r="F68" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68" s="14"/>
       <c r="H68" s="14">
-        <f t="shared" ref="H68:H121" si="1">F68*G68</f>
-        <v>0</v>
-      </c>
-      <c r="J68"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C68,C68)=1,MAX(J$3:J67)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K68" s="1" t="str">
+        <f>IF($J68:J902="","",$C68:C902)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="11" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>7</v>
@@ -2391,22 +2965,29 @@
         <v>6</v>
       </c>
       <c r="F69" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G69" s="14"/>
       <c r="H69" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J69"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C69,C69)=1,MAX(J$3:J68)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K69" s="1" t="str">
+        <f>IF($J69:J903="","",$C69:C903)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>7</v>
@@ -2419,18 +3000,25 @@
       </c>
       <c r="G70" s="14"/>
       <c r="H70" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J70"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C70,C70)=1,MAX(J$3:J69)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K70" s="1" t="str">
+        <f>IF($J70:J904="","",$C70:C904)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>7</v>
@@ -2443,18 +3031,25 @@
       </c>
       <c r="G71" s="14"/>
       <c r="H71" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J71"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H71:H121" si="3">F71*G71</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C71,C71)=1,MAX(J$3:J70)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K71" s="1" t="str">
+        <f>IF($J71:J905="","",$C71:C905)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>7</v>
@@ -2463,22 +3058,29 @@
         <v>6</v>
       </c>
       <c r="F72" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J72"/>
-    </row>
-    <row r="73" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C72,C72)=1,MAX(J$3:J71)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K72" s="1" t="str">
+        <f>IF($J72:J906="","",$C72:C906)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
-      <c r="B73" s="15" t="s">
-        <v>27</v>
+      <c r="B73" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D73" s="12" t="s">
         <v>7</v>
@@ -2487,22 +3089,29 @@
         <v>6</v>
       </c>
       <c r="F73" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73" s="14"/>
       <c r="H73" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J73"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C73,C73)=1,MAX(J$3:J72)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K73" s="1" t="str">
+        <f>IF($J73:J907="","",$C73:C907)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>7</v>
@@ -2511,67 +3120,91 @@
         <v>6</v>
       </c>
       <c r="F74" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G74" s="14"/>
       <c r="H74" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J74"/>
-    </row>
-    <row r="75" spans="1:10" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="16"/>
-      <c r="B75" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C75" s="17"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C74,C74)=1,MAX(J$3:J73)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K74" s="1" t="str">
+        <f>IF($J74:J908="","",$C74:C908)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="10"/>
+      <c r="B75" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="D75" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E75" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F75" s="19">
+        <v>7</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" s="13">
         <v>2</v>
       </c>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J75"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
-        <v>5</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="8">
+      <c r="G75" s="14"/>
+      <c r="H75" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C75,C75)=1,MAX(J$3:J74)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K75" s="1" t="str">
+        <f>IF($J75:J909="","",$C75:C909)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+      <c r="A76" s="10"/>
+      <c r="B76" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" s="13">
         <v>1</v>
       </c>
-      <c r="G76" s="9">
-        <f>SUM(H77:H95)</f>
-        <v>0</v>
-      </c>
-      <c r="H76" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J76"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G76" s="14"/>
+      <c r="H76" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C76,C76)=1,MAX(J$3:J75)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K76" s="1" t="str">
+        <f>IF($J76:J910="","",$C76:C910)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D77" s="12" t="s">
         <v>7</v>
@@ -2580,70 +3213,88 @@
         <v>6</v>
       </c>
       <c r="F77" s="13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G77" s="14"/>
       <c r="H77" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J77"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="10"/>
-      <c r="B78" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>37</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C77,C77)=1,MAX(J$3:J76)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K77" s="1" t="str">
+        <f>IF($J77:J911="","",$C77:C911)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="16"/>
+      <c r="B78" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C78" s="17"/>
       <c r="D78" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" s="13">
-        <v>8</v>
-      </c>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J78"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="10"/>
-      <c r="B79" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F79" s="13">
+        <v>45</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="19">
+        <v>2</v>
+      </c>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C78,C78)=1,MAX(J$3:J77)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K78" s="1" t="str">
+        <f>IF($J78:J912="","",$C78:C912)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>5</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="8">
         <v>1</v>
       </c>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J79"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G79" s="9">
+        <f>SUM(H80:H98)</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C79,C79)=1,MAX(J$3:J78)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K79" s="1" t="str">
+        <f>IF($J79:J913="","",$C79:C913)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>7</v>
@@ -2652,22 +3303,29 @@
         <v>6</v>
       </c>
       <c r="F80" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G80" s="14"/>
       <c r="H80" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J80"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C80,C80)=1,MAX(J$3:J79)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K80" s="1" t="str">
+        <f>IF($J80:J914="","",$C80:C914)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="11" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>7</v>
@@ -2676,22 +3334,29 @@
         <v>6</v>
       </c>
       <c r="F81" s="13">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="G81" s="14"/>
       <c r="H81" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J81"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C81,C81)=1,MAX(J$3:J80)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K81" s="1" t="str">
+        <f>IF($J81:J915="","",$C81:C915)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="11" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>7</v>
@@ -2700,22 +3365,29 @@
         <v>6</v>
       </c>
       <c r="F82" s="13">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="G82" s="14"/>
       <c r="H82" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J82"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C82,C82)=1,MAX(J$3:J81)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K82" s="1" t="str">
+        <f>IF($J82:J916="","",$C82:C916)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="11" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D83" s="12" t="s">
         <v>7</v>
@@ -2728,18 +3400,25 @@
       </c>
       <c r="G83" s="14"/>
       <c r="H83" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J83"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C83,C83)=1,MAX(J$3:J82)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K83" s="1" t="str">
+        <f>IF($J83:J917="","",$C83:C917)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="11" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>7</v>
@@ -2748,22 +3427,29 @@
         <v>6</v>
       </c>
       <c r="F84" s="13">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="G84" s="14"/>
       <c r="H84" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J84"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C84,C84)=1,MAX(J$3:J83)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K84" s="1" t="str">
+        <f>IF($J84:J918="","",$C84:C918)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="11" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D85" s="12" t="s">
         <v>7</v>
@@ -2772,22 +3458,29 @@
         <v>6</v>
       </c>
       <c r="F85" s="13">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="G85" s="14"/>
       <c r="H85" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J85"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C85,C85)=1,MAX(J$3:J84)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K85" s="1" t="str">
+        <f>IF($J85:J919="","",$C85:C919)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="11" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="12" t="s">
         <v>7</v>
@@ -2796,22 +3489,29 @@
         <v>6</v>
       </c>
       <c r="F86" s="13">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G86" s="14"/>
       <c r="H86" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J86"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C86,C86)=1,MAX(J$3:J85)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K86" s="1" t="str">
+        <f>IF($J86:J920="","",$C86:C920)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D87" s="12" t="s">
         <v>7</v>
@@ -2820,22 +3520,29 @@
         <v>6</v>
       </c>
       <c r="F87" s="13">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G87" s="14"/>
       <c r="H87" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J87"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C87,C87)=1,MAX(J$3:J86)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K87" s="1" t="str">
+        <f>IF($J87:J921="","",$C87:C921)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="11" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D88" s="12" t="s">
         <v>7</v>
@@ -2844,46 +3551,60 @@
         <v>6</v>
       </c>
       <c r="F88" s="13">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="G88" s="14"/>
       <c r="H88" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J88"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C88,C88)=1,MAX(J$3:J87)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K88" s="1" t="str">
+        <f>IF($J88:J922="","",$C88:C922)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="11" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C89" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" s="13">
         <v>20</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F89" s="13">
-        <v>1</v>
       </c>
       <c r="G89" s="14"/>
       <c r="H89" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J89"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C89,C89)=1,MAX(J$3:J88)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K89" s="1" t="str">
+        <f>IF($J89:J923="","",$C89:C923)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D90" s="12" t="s">
         <v>7</v>
@@ -2892,22 +3613,29 @@
         <v>6</v>
       </c>
       <c r="F90" s="13">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G90" s="14"/>
       <c r="H90" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J90"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C90,C90)=1,MAX(J$3:J89)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K90" s="1" t="str">
+        <f>IF($J90:J924="","",$C90:C924)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D91" s="12" t="s">
         <v>7</v>
@@ -2916,22 +3644,29 @@
         <v>6</v>
       </c>
       <c r="F91" s="13">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G91" s="14"/>
       <c r="H91" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J91"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C91,C91)=1,MAX(J$3:J90)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K91" s="1" t="str">
+        <f>IF($J91:J925="","",$C91:C925)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D92" s="12" t="s">
         <v>7</v>
@@ -2940,22 +3675,29 @@
         <v>6</v>
       </c>
       <c r="F92" s="13">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="G92" s="14"/>
       <c r="H92" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J92"/>
-    </row>
-    <row r="93" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C92,C92)=1,MAX(J$3:J91)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K92" s="1" t="str">
+        <f>IF($J92:J926="","",$C92:C926)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
-      <c r="B93" s="15" t="s">
-        <v>27</v>
+      <c r="B93" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>7</v>
@@ -2964,22 +3706,29 @@
         <v>6</v>
       </c>
       <c r="F93" s="13">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="G93" s="14"/>
       <c r="H93" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J93"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C93,C93)=1,MAX(J$3:J92)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K93" s="1" t="str">
+        <f>IF($J93:J927="","",$C93:C927)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>7</v>
@@ -2988,67 +3737,91 @@
         <v>6</v>
       </c>
       <c r="F94" s="13">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G94" s="14"/>
       <c r="H94" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J94"/>
-    </row>
-    <row r="95" spans="1:10" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="16"/>
-      <c r="B95" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C95" s="17"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C94,C94)=1,MAX(J$3:J93)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K94" s="1" t="str">
+        <f>IF($J94:J928="","",$C94:C928)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="10"/>
+      <c r="B95" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="D95" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E95" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F95" s="19">
-        <v>2</v>
-      </c>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J95"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
-        <v>6</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="8">
-        <v>1</v>
-      </c>
-      <c r="G96" s="9">
-        <f>SUM(H97:H114)</f>
-        <v>0</v>
-      </c>
-      <c r="H96" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J96"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" s="13">
+        <v>11</v>
+      </c>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C95,C95)=1,MAX(J$3:J94)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K95" s="1" t="str">
+        <f>IF($J95:J929="","",$C95:C929)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+      <c r="A96" s="10"/>
+      <c r="B96" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" s="13">
+        <v>8</v>
+      </c>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C96,C96)=1,MAX(J$3:J95)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K96" s="1" t="str">
+        <f>IF($J96:J930="","",$C96:C930)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D97" s="12" t="s">
         <v>7</v>
@@ -3057,70 +3830,88 @@
         <v>6</v>
       </c>
       <c r="F97" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G97" s="14"/>
       <c r="H97" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J97"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="10"/>
-      <c r="B98" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>37</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C97,C97)=1,MAX(J$3:J96)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K97" s="1" t="str">
+        <f>IF($J97:J931="","",$C97:C931)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="16"/>
+      <c r="B98" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" s="17"/>
       <c r="D98" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E98" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98" s="13">
+        <v>45</v>
+      </c>
+      <c r="E98" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" s="19">
         <v>2</v>
       </c>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J98"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
-      <c r="B99" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D99" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F99" s="13">
+      <c r="G98" s="20"/>
+      <c r="H98" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C98,C98)=1,MAX(J$3:J97)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K98" s="1" t="str">
+        <f>IF($J98:J932="","",$C98:C932)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="5">
+        <v>6</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="8">
         <v>1</v>
       </c>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J99"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G99" s="9">
+        <f>SUM(H100:H114)</f>
+        <v>0</v>
+      </c>
+      <c r="H99" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C99,C99)=1,MAX(J$3:J98)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K99" s="1" t="str">
+        <f>IF($J99:J933="","",$C99:C933)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D100" s="12" t="s">
         <v>7</v>
@@ -3133,18 +3924,25 @@
       </c>
       <c r="G100" s="14"/>
       <c r="H100" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J100"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C100,C100)=1,MAX(J$3:J99)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K100" s="1" t="str">
+        <f>IF($J100:J936="","",$C100:C936)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
       <c r="B101" s="11" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>7</v>
@@ -3153,22 +3951,29 @@
         <v>6</v>
       </c>
       <c r="F101" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G101" s="14"/>
       <c r="H101" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J101"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C101,C101)=1,MAX(J$3:J100)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K101" s="1" t="str">
+        <f>IF($J101:J937="","",$C101:C937)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
       <c r="B102" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>7</v>
@@ -3177,46 +3982,60 @@
         <v>6</v>
       </c>
       <c r="F102" s="13">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G102" s="14"/>
       <c r="H102" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J102"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C102,C102)=1,MAX(J$3:J101)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K102" s="1" t="str">
+        <f>IF($J102:J938="","",$C102:C938)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
       <c r="B103" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F103" s="13">
         <v>8</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F103" s="13">
-        <v>1</v>
       </c>
       <c r="G103" s="14"/>
       <c r="H103" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J103"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C103,C103)=1,MAX(J$3:J102)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K103" s="1" t="str">
+        <f>IF($J103:J939="","",$C103:C939)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>7</v>
@@ -3229,12 +4048,19 @@
       </c>
       <c r="G104" s="14"/>
       <c r="H104" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J104"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C104,C104)=1,MAX(J$3:J103)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K104" s="1" t="str">
+        <f>IF($J104:J940="","",$C104:C940)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="11" t="s">
         <v>12</v>
@@ -3253,12 +4079,19 @@
       </c>
       <c r="G105" s="14"/>
       <c r="H105" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J105"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C105,C105)=1,MAX(J$3:J104)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K105" s="1" t="str">
+        <f>IF($J105:J942="","",$C105:C942)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="11" t="s">
         <v>55</v>
@@ -3277,12 +4110,19 @@
       </c>
       <c r="G106" s="14"/>
       <c r="H106" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J106"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C106,C106)=1,MAX(J$3:J105)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K106" s="1" t="str">
+        <f>IF($J106:J943="","",$C106:C943)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="10"/>
       <c r="B107" s="11" t="s">
         <v>16</v>
@@ -3301,12 +4141,19 @@
       </c>
       <c r="G107" s="14"/>
       <c r="H107" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J107"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C107,C107)=1,MAX(J$3:J106)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K107" s="1" t="str">
+        <f>IF($J107:J944="","",$C107:C944)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
       <c r="B108" s="11" t="s">
         <v>30</v>
@@ -3321,16 +4168,23 @@
         <v>6</v>
       </c>
       <c r="F108" s="13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G108" s="14"/>
       <c r="H108" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J108"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C108,C108)=1,MAX(J$3:J107)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K108" s="1" t="str">
+        <f>IF($J108:J945="","",$C108:C945)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
       <c r="B109" s="11" t="s">
         <v>19</v>
@@ -3345,16 +4199,23 @@
         <v>6</v>
       </c>
       <c r="F109" s="13">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G109" s="14"/>
       <c r="H109" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J109"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C109,C109)=1,MAX(J$3:J108)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K109" s="1" t="str">
+        <f>IF($J109:J946="","",$C109:C946)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
       <c r="B110" s="11" t="s">
         <v>21</v>
@@ -3369,16 +4230,23 @@
         <v>6</v>
       </c>
       <c r="F110" s="13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G110" s="14"/>
       <c r="H110" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J110"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C110,C110)=1,MAX(J$3:J109)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K110" s="1" t="str">
+        <f>IF($J110:J947="","",$C110:C947)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" s="11" t="s">
         <v>23</v>
@@ -3397,12 +4265,19 @@
       </c>
       <c r="G111" s="14"/>
       <c r="H111" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J111"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C111,C111)=1,MAX(J$3:J110)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K111" s="1" t="str">
+        <f>IF($J111:J948="","",$C111:C948)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="11" t="s">
         <v>25</v>
@@ -3421,12 +4296,19 @@
       </c>
       <c r="G112" s="14"/>
       <c r="H112" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J112"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C112,C112)=1,MAX(J$3:J111)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K112" s="1" t="str">
+        <f>IF($J112:J949="","",$C112:C949)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="11" t="s">
         <v>39</v>
@@ -3445,12 +4327,19 @@
       </c>
       <c r="G113" s="14"/>
       <c r="H113" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J113"/>
-    </row>
-    <row r="114" spans="1:10" ht="99.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C113,C113)=1,MAX(J$3:J112)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K113" s="1" t="str">
+        <f>IF($J113:J950="","",$C113:C950)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="99.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="16"/>
       <c r="B114" s="17" t="s">
         <v>67</v>
@@ -3467,12 +4356,19 @@
       </c>
       <c r="G114" s="20"/>
       <c r="H114" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J114"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C114,C114)=1,MAX(J$3:J113)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K114" s="1" t="str">
+        <f>IF($J114:J951="","",$C114:C951)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>7</v>
       </c>
@@ -3490,12 +4386,19 @@
         <v>0</v>
       </c>
       <c r="H115" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J115"/>
-    </row>
-    <row r="116" spans="1:10" ht="82.5" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C115,C115)=1,MAX(J$3:J114)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K115" s="1" t="str">
+        <f>IF($J115:J952="","",$C115:C952)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
       <c r="B116" s="15" t="s">
         <v>68</v>
@@ -3514,12 +4417,19 @@
       </c>
       <c r="G116" s="14"/>
       <c r="H116" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J116"/>
-    </row>
-    <row r="117" spans="1:10" ht="82.5" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="1">
+        <f>IF(COUNTIF(C$3:C116,C116)=1,MAX(J$3:J115)+1,"")</f>
+        <v>20</v>
+      </c>
+      <c r="K116" s="1" t="str">
+        <f>IF($J116:J953="","",$C116:C953)</f>
+        <v>RTSTN007U</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
       <c r="B117" s="15" t="s">
         <v>46</v>
@@ -3538,12 +4448,19 @@
       </c>
       <c r="G117" s="14"/>
       <c r="H117" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J117"/>
-    </row>
-    <row r="118" spans="1:10" ht="82.5" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="1">
+        <f>IF(COUNTIF(C$3:C117,C117)=1,MAX(J$3:J116)+1,"")</f>
+        <v>21</v>
+      </c>
+      <c r="K117" s="1" t="str">
+        <f>IF($J117:J954="","",$C117:C954)</f>
+        <v>RTSTN008U</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
       <c r="B118" s="15" t="s">
         <v>48</v>
@@ -3562,12 +4479,19 @@
       </c>
       <c r="G118" s="14"/>
       <c r="H118" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J118"/>
-    </row>
-    <row r="119" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C118,C118)=1,MAX(J$3:J117)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K118" s="1" t="str">
+        <f>IF($J118:J955="","",$C118:C955)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A119" s="10"/>
       <c r="B119" s="15" t="s">
         <v>50</v>
@@ -3586,12 +4510,19 @@
       </c>
       <c r="G119" s="14"/>
       <c r="H119" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J119"/>
-    </row>
-    <row r="120" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J119" s="1">
+        <f>IF(COUNTIF(C$3:C119,C119)=1,MAX(J$3:J118)+1,"")</f>
+        <v>22</v>
+      </c>
+      <c r="K119" s="1" t="str">
+        <f>IF($J119:J956="","",$C119:C956)</f>
+        <v>DC000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
       <c r="B120" s="15" t="s">
         <v>53</v>
@@ -3610,156 +4541,703 @@
       </c>
       <c r="G120" s="14"/>
       <c r="H120" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J120"/>
-    </row>
-    <row r="121" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="22"/>
-      <c r="B121" s="23" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J120" s="1">
+        <f>IF(COUNTIF(C$3:C120,C120)=1,MAX(J$3:J119)+1,"")</f>
+        <v>23</v>
+      </c>
+      <c r="K120" s="1" t="str">
+        <f>IF($J120:J957="","",$C120:C957)</f>
+        <v>DC000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="26"/>
+      <c r="B121" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C121" s="24"/>
-      <c r="D121" s="24" t="s">
+      <c r="C121" s="28"/>
+      <c r="D121" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E121" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F121" s="21">
+      <c r="E121" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F121" s="29">
         <v>9</v>
       </c>
-      <c r="G121" s="20"/>
-      <c r="H121" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J121"/>
-    </row>
-    <row r="122" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A122" s="25"/>
-      <c r="B122" s="25"/>
-      <c r="C122" s="25"/>
-      <c r="D122" s="25"/>
-      <c r="E122" s="25"/>
-      <c r="F122" s="26"/>
-      <c r="G122" s="26"/>
-      <c r="H122" s="26"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J121" s="1" t="str">
+        <f>IF(COUNTIF(C$3:C121,C121)=1,MAX(J$3:J120)+1,"")</f>
+        <v/>
+      </c>
+      <c r="K121" s="1" t="str">
+        <f>IF($J121:J958="","",$C121:C958)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="31">
+        <v>8</v>
+      </c>
+      <c r="B122" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C122" s="31"/>
+      <c r="D122" s="31"/>
+      <c r="E122" s="31"/>
+      <c r="F122" s="8">
+        <v>1</v>
+      </c>
+      <c r="G122" s="9">
+        <f ca="1">SUM(H123:H128)</f>
+        <v>0</v>
+      </c>
+      <c r="H122" s="9">
+        <f t="shared" ref="H122" ca="1" si="4">F122*G122</f>
+        <v>0</v>
+      </c>
       <c r="J122"/>
     </row>
-    <row r="123" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="10"/>
+      <c r="B123" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C123" s="33" t="str">
+        <f>IF(MAX(NameCount)&lt;ROW(1:1),"",VLOOKUP(ROW(1:1),NameList,2))</f>
+        <v>CSB-1</v>
+      </c>
+      <c r="D123" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F123" s="35">
+        <f ca="1">ROUND(K123*0.1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14">
+        <f t="shared" ref="H123" ca="1" si="5">F123*G123</f>
+        <v>0</v>
+      </c>
       <c r="J123"/>
-    </row>
-    <row r="124" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K123" s="1">
+        <f ca="1">IF(C123="","",SUMIF(C$1:H$121,C123,F$1:F$121))</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="10"/>
+      <c r="B124" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C124" s="36" t="str">
+        <f>IF(MAX(NameCount)&lt;ROW(2:2),"",VLOOKUP(ROW(2:2),NameList,2))</f>
+        <v>C401</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F124" s="35">
+        <f t="shared" ref="F124:F141" ca="1" si="6">ROUND(K124*0.1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14">
+        <f t="shared" ref="H124:H141" ca="1" si="7">F124*G124</f>
+        <v>0</v>
+      </c>
       <c r="J124"/>
-    </row>
-    <row r="125" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K124" s="1">
+        <f ca="1">IF(C124="","",SUMIF(C$1:H$121,C124,F$1:F$121))</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="10"/>
+      <c r="B125" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C125" s="36" t="str">
+        <f>IF(MAX(NameCount)&lt;ROW(3:3),"",VLOOKUP(ROW(3:3),NameList,2))</f>
+        <v>CUTP-1R</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F125" s="35">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G125" s="14"/>
+      <c r="H125" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
       <c r="J125"/>
-    </row>
-    <row r="126" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K125" s="1">
+        <f ca="1">IF(C125="","",SUMIF(C$1:H$121,C125,F$1:F$121))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="10"/>
+      <c r="B126" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C126" s="36" t="str">
+        <f>IF(MAX(NameCount)&lt;ROW(4:4),"",VLOOKUP(ROW(4:4),NameList,2))</f>
+        <v>CUTP-1G</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F126" s="35">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G126" s="14"/>
+      <c r="H126" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
       <c r="J126"/>
-    </row>
-    <row r="127" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K126" s="1">
+        <f ca="1">IF(C126="","",SUMIF(C$1:H$121,C126,F$1:F$121))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="10"/>
+      <c r="B127" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C127" s="36" t="str">
+        <f>IF(MAX(NameCount)&lt;ROW(5:5),"",VLOOKUP(ROW(5:5),NameList,2))</f>
+        <v>CIDC</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F127" s="35">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="G127" s="14"/>
+      <c r="H127" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
       <c r="J127"/>
-    </row>
-    <row r="128" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K127" s="1">
+        <f ca="1">IF(C127="","",SUMIF(C$1:H$121,C127,F$1:F$121))</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="10"/>
+      <c r="B128" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C128" s="36" t="str">
+        <f>IF(MAX(NameCount)&lt;ROW(6:6),"",VLOOKUP(ROW(6:6),NameList,2))</f>
+        <v>CIDCS</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F128" s="35">
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="G128" s="14"/>
+      <c r="H128" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
       <c r="J128"/>
-    </row>
-    <row r="129" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K128" s="1">
+        <f ca="1">IF(C128="","",SUMIF(C$1:H$121,C128,F$1:F$121))</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="10"/>
+      <c r="B129" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="36" t="str">
+        <f>IF(MAX(NameCount)&lt;ROW(7:7),"",VLOOKUP(ROW(7:7),NameList,2))</f>
+        <v>CR6 MR</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F129" s="35">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G129" s="14"/>
+      <c r="H129" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
       <c r="J129"/>
-    </row>
-    <row r="130" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K129" s="1">
+        <f ca="1">IF(C129="","",SUMIF(C$1:H$121,C129,F$1:F$121))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="10"/>
+      <c r="B130" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" s="36" t="str">
+        <f>IF(MAX(NameCount)&lt;ROW(8:8),"",VLOOKUP(ROW(8:8),NameList,2))</f>
+        <v>CR6 IOR</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F130" s="35">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G130" s="14"/>
+      <c r="H130" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
       <c r="J130"/>
-    </row>
-    <row r="131" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K130" s="1">
+        <f ca="1">IF(C130="","",SUMIF(C$1:H$121,C130,F$1:F$121))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="10"/>
+      <c r="B131" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="36" t="str">
+        <f>IF(MAX(NameCount)&lt;ROW(9:9),"",VLOOKUP(ROW(9:9),NameList,2))</f>
+        <v>S304</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F131" s="35">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
       <c r="J131"/>
-    </row>
-    <row r="132" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K131" s="1">
+        <f ca="1">IF(C131="","",SUMIF(C$1:H$121,C131,F$1:F$121))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="10"/>
+      <c r="B132" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" s="36" t="str">
+        <f>IF(MAX(NameCount)&lt;ROW(10:10),"",VLOOKUP(ROW(10:10),NameList,2))</f>
+        <v>S343</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F132" s="35">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G132" s="14"/>
+      <c r="H132" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
       <c r="J132"/>
-    </row>
-    <row r="133" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K132" s="1">
+        <f ca="1">IF(C132="","",SUMIF(C$1:H$121,C132,F$1:F$121))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="10"/>
+      <c r="B133" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C133" s="36" t="str">
+        <f>IF(MAX(NameCount)&lt;ROW(11:11),"",VLOOKUP(ROW(11:11),NameList,2))</f>
+        <v>TP-D</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F133" s="35">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G133" s="14"/>
+      <c r="H133" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
       <c r="J133"/>
-    </row>
-    <row r="134" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K133" s="1">
+        <f ca="1">IF(C133="","",SUMIF(C$1:H$121,C133,F$1:F$121))</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="10"/>
+      <c r="B134" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" s="36" t="str">
+        <f>IF(MAX(NameCount)&lt;ROW(12:12),"",VLOOKUP(ROW(12:12),NameList,2))</f>
+        <v>TP-О</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F134" s="35">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G134" s="14"/>
+      <c r="H134" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
       <c r="J134"/>
-    </row>
-    <row r="135" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K134" s="1">
+        <f ca="1">IF(C134="","",SUMIF(C$1:H$121,C134,F$1:F$121))</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="10"/>
+      <c r="B135" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C135" s="36" t="str">
+        <f>IF(MAX(NameCount)&lt;ROW(13:13),"",VLOOKUP(ROW(13:13),NameList,2))</f>
+        <v>TP-U</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F135" s="35">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="G135" s="14"/>
+      <c r="H135" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
       <c r="J135"/>
-    </row>
-    <row r="136" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K135" s="1">
+        <f ca="1">IF(C135="","",SUMIF(C$1:H$121,C135,F$1:F$121))</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="10"/>
+      <c r="B136" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" s="36" t="str">
+        <f>IF(MAX(NameCount)&lt;ROW(14:14),"",VLOOKUP(ROW(14:14),NameList,2))</f>
+        <v>FP-04R</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F136" s="35">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G136" s="14"/>
+      <c r="H136" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
       <c r="J136"/>
-    </row>
-    <row r="137" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K136" s="1">
+        <f ca="1">IF(C136="","",SUMIF(C$1:H$121,C136,F$1:F$121))</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="10"/>
+      <c r="B137" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C137" s="36" t="str">
+        <f>IF(MAX(NameCount)&lt;ROW(15:15),"",VLOOKUP(ROW(15:15),NameList,2))</f>
+        <v>M1234A</v>
+      </c>
+      <c r="D137" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F137" s="35">
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="G137" s="14"/>
+      <c r="H137" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
       <c r="J137"/>
-    </row>
-    <row r="138" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K137" s="1">
+        <f ca="1">IF(C137="","",SUMIF(C$1:H$121,C137,F$1:F$121))</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="10"/>
+      <c r="B138" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C138" s="36" t="str">
+        <f>IF(MAX(NameCount)&lt;ROW(16:16),"",VLOOKUP(ROW(16:16),NameList,2))</f>
+        <v>M1252D</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F138" s="35">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G138" s="14"/>
+      <c r="H138" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
       <c r="J138"/>
-    </row>
-    <row r="139" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K138" s="1">
+        <f ca="1">IF(C138="","",SUMIF(C$1:H$121,C138,F$1:F$121))</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="10"/>
+      <c r="B139" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139" s="36" t="str">
+        <f>IF(MAX(NameCount)&lt;ROW(17:17),"",VLOOKUP(ROW(17:17),NameList,2))</f>
+        <v>M1251O</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F139" s="35">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G139" s="14"/>
+      <c r="H139" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
       <c r="J139"/>
-    </row>
-    <row r="140" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K139" s="1">
+        <f ca="1">IF(C139="","",SUMIF(C$1:H$121,C139,F$1:F$121))</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+      <c r="A140" s="10"/>
+      <c r="B140" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C140" s="36" t="str">
+        <f>IF(MAX(NameCount)&lt;ROW(18:18),"",VLOOKUP(ROW(18:18),NameList,2))</f>
+        <v>M1231TR</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F140" s="35">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G140" s="14"/>
+      <c r="H140" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
       <c r="J140"/>
-    </row>
-    <row r="141" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K140" s="1">
+        <f ca="1">IF(C140="","",SUMIF(C$1:H$121,C140,F$1:F$121))</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="22"/>
+      <c r="B141" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C141" s="37" t="str">
+        <f>IF(MAX(NameCount)&lt;ROW(19:19),"",VLOOKUP(ROW(19:19),NameList,2))</f>
+        <v>M1201Е-0</v>
+      </c>
+      <c r="D141" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F141" s="38">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G141" s="20"/>
+      <c r="H141" s="20">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
       <c r="J141"/>
-    </row>
-    <row r="142" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K141" s="1">
+        <f ca="1">IF(C141="","",SUMIF(C$1:H$121,C141,F$1:F$121))</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="J142"/>
     </row>
-    <row r="143" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="J143"/>
     </row>
-    <row r="144" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="J144"/>
     </row>
-    <row r="145" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J145"/>
     </row>
-    <row r="146" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="C146" t="str">
+        <f>IF(MAX(NameCount)&lt;ROW(24:24),"",VLOOKUP(ROW(24:24),NameList,2))</f>
+        <v/>
+      </c>
       <c r="J146"/>
     </row>
-    <row r="147" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="C147" t="str">
+        <f>IF(MAX(NameCount)&lt;ROW(27:27),"",VLOOKUP(ROW(27:27),NameList,2))</f>
+        <v/>
+      </c>
       <c r="J147"/>
     </row>
-    <row r="148" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J148"/>
     </row>
-    <row r="149" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J149"/>
     </row>
-    <row r="150" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J150"/>
     </row>
-    <row r="151" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J151"/>
     </row>
-    <row r="152" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J152"/>
     </row>
-    <row r="153" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J153"/>
     </row>
-    <row r="154" spans="10:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J154"/>
     </row>
-    <row r="155" spans="10:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J155"/>
     </row>
-    <row r="156" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J156"/>
     </row>
-    <row r="157" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J157"/>
     </row>
-    <row r="158" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J158"/>
     </row>
-    <row r="159" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J159"/>
     </row>
-    <row r="160" spans="10:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J160"/>
     </row>
     <row r="161" spans="10:10" ht="15" x14ac:dyDescent="0.25">
